--- a/pred_ohlcv/54_21/2019-11-02 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ENJ ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>339362.1593999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>339372.1593999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>297352.1593999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>280525.053</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>280525.053</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>280525.053</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>465589.6200693466</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>458107.4841693466</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>516580.8151693467</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>513486.5617693467</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>510520.4835693467</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>498827.9960693467</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>511794.0743693467</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>513794.0743693467</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>513794.0743693467</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>509168.1838693467</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>513478.1838693467</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>501906.0866693467</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>501906.0866693467</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>495086.0866693467</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>496420.4431693467</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>506216.0081693467</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>505007.7821693467</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>493723.6117693467</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>492905.1893693467</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>490930.1393693467</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>490652.4629693467</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>490830.7431693467</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>501338.3682693467</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>556687.5367593076</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>558839.6697593076</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>568240.6797593076</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>557836.3320593076</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>558851.3319593077</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>544838.3533593076</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>584012.4900593077</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>584009.6200593077</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>580950.4114593077</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>586098.4166073129</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>514069.8778073129</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>509069.8778073129</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>509069.8778073129</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>509613.3363073129</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>514762.7282073129</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>519249.9740073129</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>519645.4201073129</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>466105.3857265437</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>437765.3857265437</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>399271.5990265437</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>398686.5093265437</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>384686.5093265437</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>347266.0112265436</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>342813.9468265436</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>345053.9468265436</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>339361.0964265436</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>345281.0964265436</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ENJ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>352218.6448</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>324292.5642</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>339362.1593999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>339372.1593999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>297352.1593999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>280525.053</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>280525.053</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>280525.053</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>465589.6200693466</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -938,7 +938,7 @@
         <v>510520.4835693467</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>498827.9960693467</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>513794.0743693467</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>509168.1838693467</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>513478.1838693467</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>506216.0081693467</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>505007.7821693467</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>493723.6117693467</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>492905.1893693467</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>490930.1393693467</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>490652.4629693467</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>490830.7431693467</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>501338.3682693467</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>556687.5367593076</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>558839.6697593076</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>568240.6797593076</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>557836.3320593076</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>558851.3319593077</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>544838.3533593076</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>584012.4900593077</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>586098.4166073129</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>514069.8778073129</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>509069.8778073129</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>509069.8778073129</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>509613.3363073129</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>514762.7282073129</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>513135.7451073129</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>519249.9740073129</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>519645.4201073129</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>464034.7240073129</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>466549.4448265437</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>466105.3857265437</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>437765.3857265437</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>377788.5957265437</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>378083.5957265437</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>399271.5990265437</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>398686.5093265437</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>384686.5093265437</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>384337.8690265436</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>359390.5473265436</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>365720.5473265436</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>365521.0473265436</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>372531.0473265436</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>383691.0473265436</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>381546.2907265436</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
